--- a/airquality.xlsx
+++ b/airquality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\WorkspaceR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F731ABE-AFAC-4228-868F-29C800DD1949}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B118DAA4-2E76-4864-A526-9B1BF8CBDAA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91EE24E2-C3CB-4694-9075-C3B57C70A056}"/>
   </bookViews>
